--- a/Translation Script/Map125.xlsx
+++ b/Translation Script/Map125.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>自動実行</t>
   </si>
@@ -195,13 +195,19 @@
     <t>パイ</t>
   </si>
   <si>
+    <t>Pie</t>
+  </si>
+  <si>
     <t>ピザ</t>
   </si>
   <si>
+    <t>Pizza</t>
+  </si>
+  <si>
     <t>ケーキ</t>
   </si>
   <si>
-    <t>cake</t>
+    <t>Cake</t>
   </si>
 </sst>
 </file>
@@ -905,23 +911,23 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
